--- a/biology/Botanique/Crataegus_tanacetifolia/Crataegus_tanacetifolia.xlsx
+++ b/biology/Botanique/Crataegus_tanacetifolia/Crataegus_tanacetifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crataegus tanacetifolia, communément nommée épine à feuilles de tanaisie, est une espèce de plantes à fleurs de la famille des Rosaceae.  
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une aubépine originaire de Turquie où elle est présente sur des pentes sèches[2] ou dans des endroits rocheux, généralement sur calcaires[3].
-Il s'agit d'un arbre ou un arbuste à feuilles caduques qui atteint jusqu'à 10 mètres de hauteur[3] et 8 mètres de largeur[2].
-Le fruit a un diamètre de 10–14 mm[3] jusqu'à 25 mm[2]. Il est de couleur orange ou rarement rouge[3]. Il peut être consommé frais ou cuit.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une aubépine originaire de Turquie où elle est présente sur des pentes sèches ou dans des endroits rocheux, généralement sur calcaires.
+Il s'agit d'un arbre ou un arbuste à feuilles caduques qui atteint jusqu'à 10 mètres de hauteur et 8 mètres de largeur.
+Le fruit a un diamètre de 10–14 mm jusqu'à 25 mm. Il est de couleur orange ou rarement rouge. Il peut être consommé frais ou cuit.
 			Les fruits.
 			L'arbuste.
 </t>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mespilus tanacetifolia Poir.</t>
         </is>
